--- a/biology/Zoologie/Decticelle_trompeuse/Decticelle_trompeuse.xlsx
+++ b/biology/Zoologie/Decticelle_trompeuse/Decticelle_trompeuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pholidoptera fallax
 La decticelle trompeuse, Pholidoptera fallax, est une espèce de sauterelles de la famille des Tettigoniidae.
@@ -516,7 +528,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : France (où elle n'a été revue que dans les Alpes-Maritimes), Italie (Sardaigne et Sicile comprises), Suisse, Autriche, pays de l'ex-Yougoslavie, République tchèque, Slovaquie, Hongrie, Roumanie, Bulgarie, Grèce.
 </t>
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur du corps varie entre 15 et 18 mm pour les mâles, entre 17 et 23 mm pour les femelles. Les Decticelles trompeuses sont de couleur brun foncé. Les lobes latéraux du pronotum sont noirs et nettement délimités par une bande blanche à leur marge. La partie arrière du pronotum recouvre environ le premier tiers des tegmina, eux-mêmes très courts. L'oviscapte de la femelle est légèrement courbé et mesure entre 11 et 13 mm de long.
 Sur les autres projets Wikimedia :
